--- a/SEP/Time Log & Planned Weekly/Timelog_PhucNguyen_SEP.xlsx
+++ b/SEP/Time Log & Planned Weekly/Timelog_PhucNguyen_SEP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>Time Recording Log For:    POS Project</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9:00 PM</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -742,121 +745,130 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="19" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,14 +885,8 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="19" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="19" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M96"/>
+  <dimension ref="A2:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1200,7 @@
     <col min="1" max="1" width="7.42578125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="26"/>
     <col min="3" max="3" width="10.7109375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="11" style="26" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="26" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="26" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="26"/>
     <col min="7" max="7" width="14" style="26" customWidth="1"/>
@@ -1281,9 +1287,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94">
-        <v>1</v>
-      </c>
+      <c r="A7" s="83"/>
       <c r="B7" s="31">
         <v>41047</v>
       </c>
@@ -1314,7 +1318,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="34"/>
@@ -1328,12 +1332,12 @@
         <v>20</v>
       </c>
       <c r="M8" s="30">
-        <f>SUM(F30:F40)+SUM(F62:F73) + SUM(F82:F88)</f>
+        <f>SUM(F30:F40)+SUM(F62:F73) + SUM(F86:F92)</f>
         <v>73.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="36"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1346,7 +1350,7 @@
       <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -1359,29 +1363,29 @@
       <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
       <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="96"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
       <c r="L12" s="26" t="s">
         <v>21</v>
       </c>
@@ -1391,8 +1395,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="94">
-        <v>2</v>
+      <c r="A13" s="83">
+        <v>1</v>
       </c>
       <c r="B13" s="31">
         <v>41050</v>
@@ -1424,7 +1428,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="31">
         <v>41051</v>
       </c>
@@ -1449,28 +1453,28 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="86">
+      <c r="A15" s="84"/>
+      <c r="B15" s="89">
         <v>41052</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="91">
         <v>0.875</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="91">
         <v>0.9375</v>
       </c>
-      <c r="E15" s="90">
-        <v>0</v>
-      </c>
-      <c r="F15" s="90">
+      <c r="E15" s="93">
+        <v>0</v>
+      </c>
+      <c r="F15" s="93">
         <v>1.5</v>
       </c>
-      <c r="G15" s="90" t="s">
+      <c r="G15" s="93" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
       <c r="L15" s="26" t="s">
         <v>24</v>
       </c>
@@ -1480,16 +1484,16 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="95"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
       <c r="L16" s="26" t="s">
         <v>25</v>
       </c>
@@ -1499,7 +1503,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -1511,45 +1515,45 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80">
-        <v>3</v>
-      </c>
-      <c r="B18" s="103">
+      <c r="A18" s="95">
+        <v>2</v>
+      </c>
+      <c r="B18" s="98">
         <v>41057</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="100">
         <v>0.375</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="100">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E18" s="83">
-        <v>0</v>
-      </c>
-      <c r="F18" s="83">
+      <c r="E18" s="106">
+        <v>0</v>
+      </c>
+      <c r="F18" s="106">
         <v>2</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="106" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="25"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="43">
         <v>41058</v>
       </c>
@@ -1573,7 +1577,7 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
+      <c r="A21" s="96"/>
       <c r="B21" s="43">
         <v>41059</v>
       </c>
@@ -1597,7 +1601,7 @@
       <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="43">
         <v>41059</v>
       </c>
@@ -1621,103 +1625,103 @@
       <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="108">
+      <c r="A23" s="96"/>
+      <c r="B23" s="105">
         <v>41060</v>
       </c>
-      <c r="C23" s="105">
+      <c r="C23" s="100">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D23" s="105">
+      <c r="D23" s="100">
         <v>0.875</v>
       </c>
-      <c r="E23" s="83">
-        <v>0</v>
-      </c>
-      <c r="F23" s="83">
+      <c r="E23" s="106">
+        <v>0</v>
+      </c>
+      <c r="F23" s="106">
         <v>1</v>
       </c>
-      <c r="G23" s="83" t="s">
+      <c r="G23" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="84"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="107"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="84"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="107"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="81"/>
-      <c r="B27" s="103">
+      <c r="A27" s="96"/>
+      <c r="B27" s="98">
         <v>41061</v>
       </c>
-      <c r="C27" s="105">
+      <c r="C27" s="100">
         <v>0.875</v>
       </c>
-      <c r="D27" s="105">
+      <c r="D27" s="100">
         <v>0.5</v>
       </c>
-      <c r="E27" s="83">
-        <v>0</v>
-      </c>
-      <c r="F27" s="83">
+      <c r="E27" s="106">
+        <v>0</v>
+      </c>
+      <c r="F27" s="106">
         <v>3</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -1729,52 +1733,50 @@
       <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="112"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
-      <c r="I30" s="83"/>
+      <c r="I30" s="106"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="113"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="84"/>
+      <c r="I31" s="107"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
-      <c r="B32" s="114"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="50"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
-      <c r="I32" s="85"/>
+      <c r="I32" s="108"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="80">
-        <v>4</v>
-      </c>
-      <c r="B33" s="79">
+      <c r="A33" s="95"/>
+      <c r="B33" s="78">
         <v>41064</v>
       </c>
       <c r="C33" s="37">
         <v>0.875</v>
       </c>
-      <c r="D33" s="123">
+      <c r="D33" s="80">
         <v>0.5</v>
       </c>
       <c r="E33" s="38">
@@ -1787,119 +1789,119 @@
         <v>47</v>
       </c>
       <c r="H33" s="49"/>
-      <c r="I33" s="78"/>
+      <c r="I33" s="77"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81"/>
-      <c r="B34" s="103">
+      <c r="A34" s="96"/>
+      <c r="B34" s="98">
         <v>41065</v>
       </c>
-      <c r="C34" s="105">
+      <c r="C34" s="100">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D34" s="105">
+      <c r="D34" s="100">
         <v>0.5</v>
       </c>
-      <c r="E34" s="83">
-        <v>0</v>
-      </c>
-      <c r="F34" s="83">
+      <c r="E34" s="106">
+        <v>0</v>
+      </c>
+      <c r="F34" s="106">
         <v>4</v>
       </c>
-      <c r="G34" s="83" t="s">
+      <c r="G34" s="106" t="s">
         <v>47</v>
       </c>
       <c r="H34" s="25"/>
-      <c r="I34" s="83"/>
+      <c r="I34" s="106"/>
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
       <c r="H35" s="25"/>
-      <c r="I35" s="84"/>
+      <c r="I35" s="107"/>
       <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
-      <c r="B36" s="104"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="85"/>
+      <c r="I36" s="108"/>
       <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81"/>
-      <c r="B37" s="103">
+      <c r="A37" s="96"/>
+      <c r="B37" s="98">
         <v>41066</v>
       </c>
-      <c r="C37" s="105">
+      <c r="C37" s="100">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D37" s="105">
+      <c r="D37" s="100">
         <v>0.5</v>
       </c>
-      <c r="E37" s="83">
-        <v>0</v>
-      </c>
-      <c r="F37" s="83">
+      <c r="E37" s="106">
+        <v>0</v>
+      </c>
+      <c r="F37" s="106">
         <v>4</v>
       </c>
-      <c r="G37" s="83" t="s">
+      <c r="G37" s="106" t="s">
         <v>48</v>
       </c>
       <c r="H37" s="25"/>
-      <c r="I37" s="83"/>
+      <c r="I37" s="106"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
+      <c r="A38" s="96"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="84"/>
+      <c r="I38" s="107"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
       <c r="H39" s="25"/>
-      <c r="I39" s="84"/>
+      <c r="I39" s="107"/>
       <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="81"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="85"/>
+      <c r="I40" s="108"/>
       <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
+      <c r="A41" s="97"/>
       <c r="B41" s="31">
         <v>41067</v>
       </c>
@@ -1970,11 +1972,11 @@
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
     </row>
-    <row r="46" spans="1:10" s="125" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="94">
+    <row r="46" spans="1:10" s="82" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="83">
         <v>5</v>
       </c>
-      <c r="B46" s="124">
+      <c r="B46" s="81">
         <v>41074</v>
       </c>
       <c r="C46" s="37">
@@ -1995,115 +1997,115 @@
       <c r="J46" s="38"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="86">
+      <c r="A47" s="84"/>
+      <c r="B47" s="89">
         <v>41075</v>
       </c>
-      <c r="C47" s="88">
+      <c r="C47" s="91">
         <v>0.875</v>
       </c>
-      <c r="D47" s="88">
+      <c r="D47" s="91">
         <v>0.5</v>
       </c>
-      <c r="E47" s="90">
-        <v>0</v>
-      </c>
-      <c r="F47" s="90">
+      <c r="E47" s="93">
+        <v>0</v>
+      </c>
+      <c r="F47" s="93">
         <v>3</v>
       </c>
-      <c r="G47" s="90" t="s">
+      <c r="G47" s="93" t="s">
         <v>50</v>
       </c>
       <c r="H47" s="38"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
+      <c r="A48" s="84"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="107"/>
     </row>
     <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
+      <c r="A49" s="84"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
       <c r="H49" s="38"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
     </row>
     <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
       <c r="H50" s="38"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="95"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
+      <c r="A51" s="84"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="94"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
       <c r="H51" s="33"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="95"/>
-      <c r="B52" s="86">
+      <c r="A52" s="84"/>
+      <c r="B52" s="89">
         <v>41076</v>
       </c>
-      <c r="C52" s="88">
+      <c r="C52" s="91">
         <v>0.375</v>
       </c>
-      <c r="D52" s="88">
+      <c r="D52" s="91">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E52" s="90">
-        <v>0</v>
-      </c>
-      <c r="F52" s="90">
+      <c r="E52" s="93">
+        <v>0</v>
+      </c>
+      <c r="F52" s="93">
         <v>2.5</v>
       </c>
-      <c r="G52" s="90" t="s">
+      <c r="G52" s="93" t="s">
         <v>37</v>
       </c>
       <c r="H52" s="38"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="95"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="94"/>
       <c r="H53" s="38"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="96"/>
+      <c r="A54" s="85"/>
       <c r="B54" s="63">
         <v>41076</v>
       </c>
@@ -2127,93 +2129,93 @@
       <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="94">
+      <c r="A55" s="83">
         <v>6</v>
       </c>
-      <c r="B55" s="86">
+      <c r="B55" s="89">
         <v>41077</v>
       </c>
-      <c r="C55" s="88">
+      <c r="C55" s="91">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D55" s="88">
+      <c r="D55" s="91">
         <v>0.5</v>
       </c>
-      <c r="E55" s="90">
-        <v>0</v>
-      </c>
-      <c r="F55" s="90">
+      <c r="E55" s="93">
+        <v>0</v>
+      </c>
+      <c r="F55" s="93">
         <v>4</v>
       </c>
-      <c r="G55" s="90" t="s">
+      <c r="G55" s="93" t="s">
         <v>53</v>
       </c>
       <c r="H55" s="38"/>
-      <c r="I55" s="83"/>
+      <c r="I55" s="106"/>
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="84"/>
+      <c r="I56" s="107"/>
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="95"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="93"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="93"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
       <c r="H57" s="38"/>
-      <c r="I57" s="84"/>
+      <c r="I57" s="107"/>
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="84"/>
+      <c r="I58" s="107"/>
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="93"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="115"/>
       <c r="H59" s="38"/>
-      <c r="I59" s="84"/>
+      <c r="I59" s="107"/>
       <c r="J59" s="25"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="95"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
+      <c r="G60" s="94"/>
       <c r="H60" s="38"/>
-      <c r="I60" s="84"/>
+      <c r="I60" s="107"/>
       <c r="J60" s="25"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="95"/>
+      <c r="A61" s="84"/>
       <c r="B61" s="63">
         <v>41078</v>
       </c>
@@ -2237,7 +2239,7 @@
       <c r="J61" s="54"/>
     </row>
     <row r="62" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="95"/>
+      <c r="A62" s="84"/>
       <c r="B62" s="63">
         <v>41078</v>
       </c>
@@ -2261,7 +2263,7 @@
       <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="95"/>
+      <c r="A63" s="84"/>
       <c r="B63" s="63">
         <v>41079</v>
       </c>
@@ -2285,7 +2287,7 @@
       <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="95"/>
+      <c r="A64" s="84"/>
       <c r="B64" s="63">
         <v>41079</v>
       </c>
@@ -2309,7 +2311,7 @@
       <c r="J64" s="35"/>
     </row>
     <row r="65" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="95"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="63">
         <v>41080</v>
       </c>
@@ -2333,7 +2335,7 @@
       <c r="J65" s="35"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="96"/>
+      <c r="A66" s="85"/>
       <c r="B66" s="63">
         <v>40352</v>
       </c>
@@ -2357,7 +2359,7 @@
       <c r="J66" s="55"/>
     </row>
     <row r="67" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="97">
+      <c r="A67" s="86">
         <v>7</v>
       </c>
       <c r="B67" s="63">
@@ -2383,7 +2385,7 @@
       <c r="J67" s="55"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="98"/>
+      <c r="A68" s="87"/>
       <c r="B68" s="63">
         <v>41086</v>
       </c>
@@ -2407,7 +2409,7 @@
       <c r="J68" s="55"/>
     </row>
     <row r="69" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="99"/>
+      <c r="A69" s="88"/>
       <c r="B69" s="63">
         <v>41087</v>
       </c>
@@ -2431,7 +2433,7 @@
       <c r="J69" s="55"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="97">
+      <c r="A70" s="86">
         <v>9</v>
       </c>
       <c r="B70" s="63">
@@ -2457,7 +2459,7 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="98"/>
+      <c r="A71" s="87"/>
       <c r="B71" s="63">
         <v>41102</v>
       </c>
@@ -2481,7 +2483,7 @@
       <c r="J71" s="24"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="98"/>
+      <c r="A72" s="87"/>
       <c r="B72" s="63">
         <v>41103</v>
       </c>
@@ -2505,7 +2507,7 @@
       <c r="J72" s="54"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="98"/>
+      <c r="A73" s="87"/>
       <c r="B73" s="56">
         <v>41104</v>
       </c>
@@ -2529,7 +2531,7 @@
       <c r="J73" s="54"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="99"/>
+      <c r="A74" s="88"/>
       <c r="B74" s="63">
         <v>41105</v>
       </c>
@@ -2553,7 +2555,7 @@
       <c r="J74" s="54"/>
     </row>
     <row r="75" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="94">
+      <c r="A75" s="83">
         <v>10</v>
       </c>
       <c r="B75" s="63">
@@ -2579,7 +2581,7 @@
       <c r="J75" s="54"/>
     </row>
     <row r="76" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="95"/>
+      <c r="A76" s="84"/>
       <c r="B76" s="56">
         <v>41107</v>
       </c>
@@ -2603,7 +2605,7 @@
       <c r="J76" s="24"/>
     </row>
     <row r="77" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="95"/>
+      <c r="A77" s="84"/>
       <c r="B77" s="63">
         <v>41108</v>
       </c>
@@ -2627,7 +2629,7 @@
       <c r="J77" s="54"/>
     </row>
     <row r="78" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="95"/>
+      <c r="A78" s="84"/>
       <c r="B78" s="63">
         <v>41109</v>
       </c>
@@ -2647,11 +2649,11 @@
         <v>58</v>
       </c>
       <c r="H78" s="75"/>
-      <c r="I78" s="83"/>
+      <c r="I78" s="106"/>
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="95"/>
+      <c r="A79" s="84"/>
       <c r="B79" s="56">
         <v>41110</v>
       </c>
@@ -2671,11 +2673,11 @@
         <v>58</v>
       </c>
       <c r="H79" s="38"/>
-      <c r="I79" s="84"/>
+      <c r="I79" s="107"/>
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="95"/>
+      <c r="A80" s="84"/>
       <c r="B80" s="63">
         <v>41111</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="D80" s="74">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="E80" s="67">
         <v>0</v>
@@ -2695,11 +2697,11 @@
         <v>62</v>
       </c>
       <c r="H80" s="38"/>
-      <c r="I80" s="84"/>
+      <c r="I80" s="107"/>
       <c r="J80" s="25"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="96"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="63">
         <v>41112</v>
       </c>
@@ -2707,7 +2709,7 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="D81" s="74">
-        <v>0.625</v>
+        <v>0.125</v>
       </c>
       <c r="E81" s="39">
         <v>0</v>
@@ -2719,346 +2721,460 @@
         <v>62</v>
       </c>
       <c r="H81" s="38"/>
-      <c r="I81" s="84"/>
+      <c r="I81" s="107"/>
       <c r="J81" s="25"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="80">
+    <row r="82" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="83">
         <v>11</v>
       </c>
-      <c r="B82" s="31">
+      <c r="B82" s="36">
+        <v>41114</v>
+      </c>
+      <c r="C82" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="73">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E82" s="39">
+        <v>0</v>
+      </c>
+      <c r="F82" s="39">
+        <v>2</v>
+      </c>
+      <c r="G82" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="H82" s="38"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+    </row>
+    <row r="83" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="84"/>
+      <c r="B83" s="36">
+        <v>41115</v>
+      </c>
+      <c r="C83" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="126">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E83" s="39">
+        <v>0</v>
+      </c>
+      <c r="F83" s="39">
+        <v>2</v>
+      </c>
+      <c r="G83" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="H83" s="38"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+    </row>
+    <row r="84" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="84"/>
+      <c r="B84" s="36">
+        <v>41116</v>
+      </c>
+      <c r="C84" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" s="73">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E84" s="39">
+        <v>0</v>
+      </c>
+      <c r="F84" s="39">
+        <v>2</v>
+      </c>
+      <c r="G84" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" s="38"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+    </row>
+    <row r="85" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="85"/>
+      <c r="B85" s="36">
+        <v>41117</v>
+      </c>
+      <c r="C85" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="73">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E85" s="39">
+        <v>0</v>
+      </c>
+      <c r="F85" s="39">
+        <v>2</v>
+      </c>
+      <c r="G85" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="H85" s="38"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="95">
+        <v>12</v>
+      </c>
+      <c r="B86" s="31">
         <v>41120</v>
       </c>
-      <c r="C82" s="32">
+      <c r="C86" s="32">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D82" s="32">
-        <v>0</v>
-      </c>
-      <c r="E82" s="24">
-        <v>0</v>
-      </c>
-      <c r="F82" s="24">
+      <c r="D86" s="32">
+        <v>0</v>
+      </c>
+      <c r="E86" s="24">
+        <v>0</v>
+      </c>
+      <c r="F86" s="24">
         <v>2</v>
       </c>
-      <c r="G82" s="69" t="s">
+      <c r="G86" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="81"/>
-      <c r="B83" s="63">
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="96"/>
+      <c r="B87" s="63">
         <v>41121</v>
       </c>
-      <c r="C83" s="34">
+      <c r="C87" s="34">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D83" s="34">
+      <c r="D87" s="34">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E83" s="33">
-        <v>0</v>
-      </c>
-      <c r="F83" s="33">
+      <c r="E87" s="33">
+        <v>0</v>
+      </c>
+      <c r="F87" s="33">
         <v>4</v>
       </c>
-      <c r="G83" s="69" t="s">
+      <c r="G87" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="81"/>
-      <c r="B84" s="103">
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="96"/>
+      <c r="B88" s="98">
         <v>41121</v>
       </c>
-      <c r="C84" s="105">
+      <c r="C88" s="100">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D84" s="105">
+      <c r="D88" s="100">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E84" s="83">
-        <v>0</v>
-      </c>
-      <c r="F84" s="83">
+      <c r="E88" s="106">
+        <v>0</v>
+      </c>
+      <c r="F88" s="106">
         <v>7.5</v>
       </c>
-      <c r="G84" s="83" t="s">
+      <c r="G88" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="83"/>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="81"/>
-      <c r="B85" s="104"/>
-      <c r="C85" s="106"/>
-      <c r="D85" s="106"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="85"/>
-      <c r="G85" s="85"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="85"/>
-      <c r="J85" s="85"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="81"/>
-      <c r="B86" s="62">
+      <c r="H88" s="25"/>
+      <c r="I88" s="106"/>
+      <c r="J88" s="106"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="96"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="108"/>
+      <c r="G89" s="108"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="108"/>
+      <c r="J89" s="108"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="96"/>
+      <c r="B90" s="62">
         <v>41121</v>
       </c>
-      <c r="C86" s="58">
+      <c r="C90" s="58">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D86" s="58">
+      <c r="D90" s="58">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E86" s="59">
-        <v>0</v>
-      </c>
-      <c r="F86" s="59">
+      <c r="E90" s="59">
+        <v>0</v>
+      </c>
+      <c r="F90" s="59">
         <v>2</v>
       </c>
-      <c r="G86" s="77" t="s">
+      <c r="G90" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="H86" s="25"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="81"/>
-      <c r="B87" s="62">
+      <c r="H90" s="25"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="96"/>
+      <c r="B91" s="62">
         <v>41122</v>
       </c>
-      <c r="C87" s="58">
+      <c r="C91" s="58">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D87" s="58">
+      <c r="D91" s="58">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E87" s="59">
-        <v>0</v>
-      </c>
-      <c r="F87" s="59">
+      <c r="E91" s="59">
+        <v>0</v>
+      </c>
+      <c r="F91" s="59">
         <v>7</v>
       </c>
-      <c r="G87" s="77" t="s">
+      <c r="G91" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="H87" s="46"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-    </row>
-    <row r="88" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="81"/>
-      <c r="B88" s="43">
+      <c r="H91" s="46"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+    </row>
+    <row r="92" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="96"/>
+      <c r="B92" s="43">
         <v>41123</v>
       </c>
-      <c r="C88" s="45">
+      <c r="C92" s="45">
         <v>0.375</v>
       </c>
-      <c r="D88" s="45">
+      <c r="D92" s="45">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E88" s="54">
-        <v>0</v>
-      </c>
-      <c r="F88" s="54">
+      <c r="E92" s="54">
+        <v>0</v>
+      </c>
+      <c r="F92" s="54">
         <v>2</v>
       </c>
-      <c r="G88" s="54" t="s">
+      <c r="G92" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="H88" s="54"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
-    </row>
-    <row r="89" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="76">
-        <v>12</v>
-      </c>
-      <c r="B89" s="31">
+      <c r="H92" s="54"/>
+      <c r="I92" s="54"/>
+      <c r="J92" s="54"/>
+    </row>
+    <row r="93" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="95">
+        <v>13</v>
+      </c>
+      <c r="B93" s="31">
         <v>41127</v>
       </c>
-      <c r="C89" s="32">
+      <c r="C93" s="32">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D89" s="32">
-        <v>0</v>
-      </c>
-      <c r="E89" s="24">
-        <v>0</v>
-      </c>
-      <c r="F89" s="24">
+      <c r="D93" s="32">
+        <v>0</v>
+      </c>
+      <c r="E93" s="24">
+        <v>0</v>
+      </c>
+      <c r="F93" s="24">
         <v>4</v>
       </c>
-      <c r="G89" s="24" t="s">
+      <c r="G93" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-    </row>
-    <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="51"/>
-      <c r="B90" s="31">
-        <v>41128</v>
-      </c>
-      <c r="C90" s="32">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D90" s="32">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E90" s="24">
-        <v>0</v>
-      </c>
-      <c r="F90" s="24">
-        <v>7</v>
-      </c>
-      <c r="G90" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="53"/>
-      <c r="B91" s="31">
-        <v>41129</v>
-      </c>
-      <c r="C91" s="32">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D91" s="32">
-        <v>0.875</v>
-      </c>
-      <c r="E91" s="24">
-        <v>0</v>
-      </c>
-      <c r="F91" s="24">
-        <v>8</v>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="51"/>
-      <c r="B92" s="31">
-        <v>41130</v>
-      </c>
-      <c r="C92" s="32">
-        <v>0.375</v>
-      </c>
-      <c r="D92" s="32">
-        <v>0</v>
-      </c>
-      <c r="E92" s="24">
-        <v>0</v>
-      </c>
-      <c r="F92" s="24">
-        <v>2</v>
-      </c>
-      <c r="G92" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="51"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
       <c r="J93" s="24"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="51"/>
-      <c r="B94" s="52" t="s">
+      <c r="A94" s="96"/>
+      <c r="B94" s="31">
+        <v>41128</v>
+      </c>
+      <c r="C94" s="32">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D94" s="32">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E94" s="24">
+        <v>0</v>
+      </c>
+      <c r="F94" s="24">
+        <v>7</v>
+      </c>
+      <c r="G94" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="96"/>
+      <c r="B95" s="31">
+        <v>41129</v>
+      </c>
+      <c r="C95" s="32">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D95" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="E95" s="24">
+        <v>0</v>
+      </c>
+      <c r="F95" s="24">
+        <v>8</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="96"/>
+      <c r="B96" s="31">
+        <v>41130</v>
+      </c>
+      <c r="C96" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="D96" s="32">
+        <v>0</v>
+      </c>
+      <c r="E96" s="24">
+        <v>0</v>
+      </c>
+      <c r="F96" s="24">
+        <v>2</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="51"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="51"/>
+      <c r="B98" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C94" s="100" t="s">
+      <c r="C98" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="101"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
-      <c r="G94" s="101"/>
-      <c r="H94" s="101"/>
-      <c r="I94" s="101"/>
-      <c r="J94" s="102"/>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="53"/>
-      <c r="E95" s="26" t="s">
+      <c r="D98" s="113"/>
+      <c r="E98" s="113"/>
+      <c r="F98" s="113"/>
+      <c r="G98" s="113"/>
+      <c r="H98" s="113"/>
+      <c r="I98" s="113"/>
+      <c r="J98" s="114"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="53"/>
+      <c r="E99" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F95" s="26">
-        <f>SUM(F7:F92)</f>
-        <v>178.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E96" s="26" t="s">
+      <c r="F99" s="26">
+        <f>SUM(F7:F96)</f>
+        <v>186.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E100" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F96" s="26">
-        <f>F95/12</f>
-        <v>14.875</v>
+      <c r="F100" s="26">
+        <f>F99/12</f>
+        <v>15.541666666666666</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="102">
-    <mergeCell ref="A46:A54"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J15:J16"/>
+  <mergeCells count="104">
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="I55:I60"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="A55:A66"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="G55:G60"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="I18:I19"/>
@@ -3083,52 +3199,38 @@
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="G23:G26"/>
     <mergeCell ref="H23:H26"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F55:F60"/>
-    <mergeCell ref="G55:G60"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="I55:I60"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="A55:A66"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A46:A54"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A33:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3150,30 +3252,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="118"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="123"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3182,17 +3284,17 @@
       <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122">
+      <c r="D3" s="124"/>
+      <c r="E3" s="125">
         <v>41050</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">

--- a/SEP/Time Log & Planned Weekly/Timelog_PhucNguyen_SEP.xlsx
+++ b/SEP/Time Log & Planned Weekly/Timelog_PhucNguyen_SEP.xlsx
@@ -18,18 +18,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
-    <t>Time Recording Log For:    POS Project</t>
-  </si>
-  <si>
     <t>SUMMARY: TIME FOR DOING PROJECT</t>
   </si>
   <si>
     <t>Name:</t>
   </si>
   <si>
-    <t>Huy Huynh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t xml:space="preserve">  9:00 PM</t>
+  </si>
+  <si>
+    <t>Time Recording Log For:    SEP Project</t>
+  </si>
+  <si>
+    <t>Phuc Nguyen</t>
   </si>
 </sst>
 </file>
@@ -766,6 +766,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="19" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -884,9 +887,6 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="19" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,24 +1215,24 @@
   <sheetData>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="L3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>2</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="G4" s="28">
         <v>41043</v>
@@ -1241,45 +1241,45 @@
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="29"/>
       <c r="L5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="L6" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>17</v>
       </c>
       <c r="M6" s="30" t="e">
         <f>SUM(F7:F12) +#REF! +#REF!/ 2+#REF!</f>
@@ -1287,7 +1287,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="31">
         <v>41047</v>
       </c>
@@ -1304,13 +1304,13 @@
         <v>1.5</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="L7" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7" s="30">
         <f>SUM(F15:F26)</f>
@@ -1318,7 +1318,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="34"/>
@@ -1329,7 +1329,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="L8" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M8" s="30">
         <f>SUM(F30:F40)+SUM(F62:F73) + SUM(F86:F92)</f>
@@ -1337,7 +1337,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="36"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1350,7 +1350,7 @@
       <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -1363,31 +1363,31 @@
       <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
       <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
       <c r="L12" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12" s="30">
         <f>SUM(F41:F61)</f>
@@ -1395,7 +1395,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83">
+      <c r="A13" s="84">
         <v>1</v>
       </c>
       <c r="B13" s="31">
@@ -1414,13 +1414,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="L13" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M13" s="30" t="e">
         <f xml:space="preserve"> SUM(F41:F61) +#REF! +#REF!</f>
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="31">
         <v>41051</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>3.5</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="25"/>
@@ -1453,30 +1453,30 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="89">
+      <c r="A15" s="85"/>
+      <c r="B15" s="90">
         <v>41052</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="92">
         <v>0.875</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="92">
         <v>0.9375</v>
       </c>
-      <c r="E15" s="93">
-        <v>0</v>
-      </c>
-      <c r="F15" s="93">
+      <c r="E15" s="94">
+        <v>0</v>
+      </c>
+      <c r="F15" s="94">
         <v>1.5</v>
       </c>
-      <c r="G15" s="93" t="s">
-        <v>42</v>
+      <c r="G15" s="94" t="s">
+        <v>40</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
       <c r="L15" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M15" s="30" t="e">
         <f>SUM(M6:M13)</f>
@@ -1484,18 +1484,18 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
       <c r="L16" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M16" s="30" t="e">
         <f>M15/8</f>
@@ -1503,7 +1503,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -1515,45 +1515,45 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95">
+      <c r="A18" s="96">
         <v>2</v>
       </c>
-      <c r="B18" s="98">
+      <c r="B18" s="99">
         <v>41057</v>
       </c>
-      <c r="C18" s="100">
+      <c r="C18" s="101">
         <v>0.375</v>
       </c>
-      <c r="D18" s="100">
+      <c r="D18" s="101">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E18" s="106">
-        <v>0</v>
-      </c>
-      <c r="F18" s="106">
+      <c r="E18" s="107">
+        <v>0</v>
+      </c>
+      <c r="F18" s="107">
         <v>2</v>
       </c>
-      <c r="G18" s="106" t="s">
-        <v>22</v>
+      <c r="G18" s="107" t="s">
+        <v>20</v>
       </c>
       <c r="H18" s="25"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="43">
         <v>41058</v>
       </c>
@@ -1570,14 +1570,14 @@
         <v>2</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="43">
         <v>41059</v>
       </c>
@@ -1594,14 +1594,14 @@
         <v>2</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21" s="59"/>
       <c r="I21" s="59"/>
       <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="96"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="43">
         <v>41059</v>
       </c>
@@ -1618,110 +1618,110 @@
         <v>3.5</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="105">
+      <c r="A23" s="97"/>
+      <c r="B23" s="106">
         <v>41060</v>
       </c>
-      <c r="C23" s="100">
+      <c r="C23" s="101">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D23" s="100">
+      <c r="D23" s="101">
         <v>0.875</v>
       </c>
-      <c r="E23" s="106">
-        <v>0</v>
-      </c>
-      <c r="F23" s="106">
+      <c r="E23" s="107">
+        <v>0</v>
+      </c>
+      <c r="F23" s="107">
         <v>1</v>
       </c>
-      <c r="G23" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="107"/>
+      <c r="G23" s="107" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="108"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="96"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="107"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="108"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="96"/>
-      <c r="B27" s="98">
+      <c r="A27" s="97"/>
+      <c r="B27" s="99">
         <v>41061</v>
       </c>
-      <c r="C27" s="100">
+      <c r="C27" s="101">
         <v>0.875</v>
       </c>
-      <c r="D27" s="100">
+      <c r="D27" s="101">
         <v>0.5</v>
       </c>
-      <c r="E27" s="106">
-        <v>0</v>
-      </c>
-      <c r="F27" s="106">
+      <c r="E27" s="107">
+        <v>0</v>
+      </c>
+      <c r="F27" s="107">
         <v>3</v>
       </c>
-      <c r="G27" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
+      <c r="G27" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="96"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="96"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -1733,43 +1733,43 @@
       <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
-      <c r="I30" s="106"/>
+      <c r="I30" s="107"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="103"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="107"/>
+      <c r="I31" s="108"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="97"/>
-      <c r="B32" s="104"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="105"/>
       <c r="C32" s="50"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
-      <c r="I32" s="108"/>
+      <c r="I32" s="109"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="95"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="78">
         <v>41064</v>
       </c>
@@ -1786,122 +1786,122 @@
         <v>3</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H33" s="49"/>
       <c r="I33" s="77"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="98">
+      <c r="A34" s="97"/>
+      <c r="B34" s="99">
         <v>41065</v>
       </c>
-      <c r="C34" s="100">
+      <c r="C34" s="101">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D34" s="100">
+      <c r="D34" s="101">
         <v>0.5</v>
       </c>
-      <c r="E34" s="106">
-        <v>0</v>
-      </c>
-      <c r="F34" s="106">
+      <c r="E34" s="107">
+        <v>0</v>
+      </c>
+      <c r="F34" s="107">
         <v>4</v>
       </c>
-      <c r="G34" s="106" t="s">
-        <v>47</v>
+      <c r="G34" s="107" t="s">
+        <v>45</v>
       </c>
       <c r="H34" s="25"/>
-      <c r="I34" s="106"/>
+      <c r="I34" s="107"/>
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
       <c r="H35" s="25"/>
-      <c r="I35" s="107"/>
+      <c r="I35" s="108"/>
       <c r="J35" s="25"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="96"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="108"/>
+      <c r="I36" s="109"/>
       <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="96"/>
-      <c r="B37" s="98">
+      <c r="A37" s="97"/>
+      <c r="B37" s="99">
         <v>41066</v>
       </c>
-      <c r="C37" s="100">
+      <c r="C37" s="101">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D37" s="100">
+      <c r="D37" s="101">
         <v>0.5</v>
       </c>
-      <c r="E37" s="106">
-        <v>0</v>
-      </c>
-      <c r="F37" s="106">
+      <c r="E37" s="107">
+        <v>0</v>
+      </c>
+      <c r="F37" s="107">
         <v>4</v>
       </c>
-      <c r="G37" s="106" t="s">
-        <v>48</v>
+      <c r="G37" s="107" t="s">
+        <v>46</v>
       </c>
       <c r="H37" s="25"/>
-      <c r="I37" s="106"/>
+      <c r="I37" s="107"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="96"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="107"/>
+      <c r="I38" s="108"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="96"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
       <c r="H39" s="25"/>
-      <c r="I39" s="107"/>
+      <c r="I39" s="108"/>
       <c r="J39" s="25"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="96"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="109"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="108"/>
+      <c r="I40" s="109"/>
       <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="97"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="31">
         <v>41067</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
@@ -1973,7 +1973,7 @@
       <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:10" s="82" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="83">
+      <c r="A46" s="84">
         <v>5</v>
       </c>
       <c r="B46" s="81">
@@ -1990,122 +1990,122 @@
         <v>3</v>
       </c>
       <c r="G46" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84"/>
-      <c r="B47" s="89">
+      <c r="A47" s="85"/>
+      <c r="B47" s="90">
         <v>41075</v>
       </c>
-      <c r="C47" s="91">
+      <c r="C47" s="92">
         <v>0.875</v>
       </c>
-      <c r="D47" s="91">
+      <c r="D47" s="92">
         <v>0.5</v>
       </c>
-      <c r="E47" s="93">
-        <v>0</v>
-      </c>
-      <c r="F47" s="93">
+      <c r="E47" s="94">
+        <v>0</v>
+      </c>
+      <c r="F47" s="94">
         <v>3</v>
       </c>
-      <c r="G47" s="93" t="s">
-        <v>50</v>
+      <c r="G47" s="94" t="s">
+        <v>48</v>
       </c>
       <c r="H47" s="38"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="107"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="84"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
     </row>
     <row r="49" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
       <c r="H49" s="38"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
     </row>
     <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
       <c r="H50" s="38"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="84"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
       <c r="H51" s="33"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="108"/>
+      <c r="I51" s="109"/>
+      <c r="J51" s="109"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
-      <c r="B52" s="89">
+      <c r="A52" s="85"/>
+      <c r="B52" s="90">
         <v>41076</v>
       </c>
-      <c r="C52" s="91">
+      <c r="C52" s="92">
         <v>0.375</v>
       </c>
-      <c r="D52" s="91">
+      <c r="D52" s="92">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E52" s="93">
-        <v>0</v>
-      </c>
-      <c r="F52" s="93">
+      <c r="E52" s="94">
+        <v>0</v>
+      </c>
+      <c r="F52" s="94">
         <v>2.5</v>
       </c>
-      <c r="G52" s="93" t="s">
-        <v>37</v>
+      <c r="G52" s="94" t="s">
+        <v>35</v>
       </c>
       <c r="H52" s="38"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="106"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="107"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="84"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
       <c r="H53" s="38"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="85"/>
+      <c r="A54" s="86"/>
       <c r="B54" s="63">
         <v>41076</v>
       </c>
@@ -2122,100 +2122,100 @@
         <v>4</v>
       </c>
       <c r="G54" s="65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H54" s="65"/>
       <c r="I54" s="54"/>
       <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="83">
+      <c r="A55" s="84">
         <v>6</v>
       </c>
-      <c r="B55" s="89">
+      <c r="B55" s="90">
         <v>41077</v>
       </c>
-      <c r="C55" s="91">
+      <c r="C55" s="92">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D55" s="91">
+      <c r="D55" s="92">
         <v>0.5</v>
       </c>
-      <c r="E55" s="93">
-        <v>0</v>
-      </c>
-      <c r="F55" s="93">
+      <c r="E55" s="94">
+        <v>0</v>
+      </c>
+      <c r="F55" s="94">
         <v>4</v>
       </c>
-      <c r="G55" s="93" t="s">
-        <v>53</v>
+      <c r="G55" s="94" t="s">
+        <v>51</v>
       </c>
       <c r="H55" s="38"/>
-      <c r="I55" s="106"/>
+      <c r="I55" s="107"/>
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="84"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="107"/>
+      <c r="I56" s="108"/>
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
       <c r="H57" s="38"/>
-      <c r="I57" s="107"/>
+      <c r="I57" s="108"/>
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="107"/>
+      <c r="I58" s="108"/>
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
       <c r="H59" s="38"/>
-      <c r="I59" s="107"/>
+      <c r="I59" s="108"/>
       <c r="J59" s="25"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="84"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="95"/>
       <c r="H60" s="38"/>
-      <c r="I60" s="107"/>
+      <c r="I60" s="108"/>
       <c r="J60" s="25"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="84"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="63">
         <v>41078</v>
       </c>
@@ -2232,14 +2232,14 @@
         <v>2.5</v>
       </c>
       <c r="G61" s="65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H61" s="65"/>
       <c r="I61" s="54"/>
       <c r="J61" s="54"/>
     </row>
     <row r="62" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="84"/>
+      <c r="A62" s="85"/>
       <c r="B62" s="63">
         <v>41078</v>
       </c>
@@ -2256,14 +2256,14 @@
         <v>1.5</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="35"/>
       <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="84"/>
+      <c r="A63" s="85"/>
       <c r="B63" s="63">
         <v>41079</v>
       </c>
@@ -2280,14 +2280,14 @@
         <v>1</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="35"/>
       <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="84"/>
+      <c r="A64" s="85"/>
       <c r="B64" s="63">
         <v>41079</v>
       </c>
@@ -2304,14 +2304,14 @@
         <v>4</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H64" s="33"/>
       <c r="I64" s="35"/>
       <c r="J64" s="35"/>
     </row>
     <row r="65" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="84"/>
+      <c r="A65" s="85"/>
       <c r="B65" s="63">
         <v>41080</v>
       </c>
@@ -2328,14 +2328,14 @@
         <v>4</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H65" s="33"/>
       <c r="I65" s="35"/>
       <c r="J65" s="35"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="85"/>
+      <c r="A66" s="86"/>
       <c r="B66" s="63">
         <v>40352</v>
       </c>
@@ -2352,14 +2352,14 @@
         <v>4</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="55"/>
       <c r="J66" s="55"/>
     </row>
     <row r="67" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="86">
+      <c r="A67" s="87">
         <v>7</v>
       </c>
       <c r="B67" s="63">
@@ -2378,14 +2378,14 @@
         <v>3.5</v>
       </c>
       <c r="G67" s="69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="55"/>
       <c r="J67" s="55"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="87"/>
+      <c r="A68" s="88"/>
       <c r="B68" s="63">
         <v>41086</v>
       </c>
@@ -2402,14 +2402,14 @@
         <v>3.5</v>
       </c>
       <c r="G68" s="69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="55"/>
       <c r="J68" s="55"/>
     </row>
     <row r="69" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="88"/>
+      <c r="A69" s="89"/>
       <c r="B69" s="63">
         <v>41087</v>
       </c>
@@ -2426,14 +2426,14 @@
         <v>0.5</v>
       </c>
       <c r="G69" s="69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="55"/>
       <c r="J69" s="55"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="86">
+      <c r="A70" s="87">
         <v>9</v>
       </c>
       <c r="B70" s="63">
@@ -2452,14 +2452,14 @@
         <v>4</v>
       </c>
       <c r="G70" s="69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="42"/>
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="87"/>
+      <c r="A71" s="88"/>
       <c r="B71" s="63">
         <v>41102</v>
       </c>
@@ -2476,14 +2476,14 @@
         <v>4</v>
       </c>
       <c r="G71" s="69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H71" s="33"/>
       <c r="I71" s="24"/>
       <c r="J71" s="24"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="87"/>
+      <c r="A72" s="88"/>
       <c r="B72" s="63">
         <v>41103</v>
       </c>
@@ -2500,14 +2500,14 @@
         <v>4</v>
       </c>
       <c r="G72" s="69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="46"/>
       <c r="J72" s="54"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="87"/>
+      <c r="A73" s="88"/>
       <c r="B73" s="56">
         <v>41104</v>
       </c>
@@ -2524,14 +2524,14 @@
         <v>4</v>
       </c>
       <c r="G73" s="69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="46"/>
       <c r="J73" s="54"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="88"/>
+      <c r="A74" s="89"/>
       <c r="B74" s="63">
         <v>41105</v>
       </c>
@@ -2548,14 +2548,14 @@
         <v>4</v>
       </c>
       <c r="G74" s="69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="46"/>
       <c r="J74" s="54"/>
     </row>
     <row r="75" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="83">
+      <c r="A75" s="84">
         <v>10</v>
       </c>
       <c r="B75" s="63">
@@ -2574,14 +2574,14 @@
         <v>4</v>
       </c>
       <c r="G75" s="69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="46"/>
       <c r="J75" s="54"/>
     </row>
     <row r="76" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="84"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="56">
         <v>41107</v>
       </c>
@@ -2598,14 +2598,14 @@
         <v>4</v>
       </c>
       <c r="G76" s="69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H76" s="57"/>
       <c r="I76" s="61"/>
       <c r="J76" s="24"/>
     </row>
     <row r="77" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="84"/>
+      <c r="A77" s="85"/>
       <c r="B77" s="63">
         <v>41108</v>
       </c>
@@ -2622,14 +2622,14 @@
         <v>4</v>
       </c>
       <c r="G77" s="69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="54"/>
       <c r="J77" s="54"/>
     </row>
     <row r="78" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="84"/>
+      <c r="A78" s="85"/>
       <c r="B78" s="63">
         <v>41109</v>
       </c>
@@ -2646,14 +2646,14 @@
         <v>4</v>
       </c>
       <c r="G78" s="69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H78" s="75"/>
-      <c r="I78" s="106"/>
+      <c r="I78" s="107"/>
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="84"/>
+      <c r="A79" s="85"/>
       <c r="B79" s="56">
         <v>41110</v>
       </c>
@@ -2670,14 +2670,14 @@
         <v>4</v>
       </c>
       <c r="G79" s="69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H79" s="38"/>
-      <c r="I79" s="107"/>
+      <c r="I79" s="108"/>
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="84"/>
+      <c r="A80" s="85"/>
       <c r="B80" s="63">
         <v>41111</v>
       </c>
@@ -2694,14 +2694,14 @@
         <v>8</v>
       </c>
       <c r="G80" s="69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H80" s="38"/>
-      <c r="I80" s="107"/>
+      <c r="I80" s="108"/>
       <c r="J80" s="25"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="85"/>
+      <c r="A81" s="86"/>
       <c r="B81" s="63">
         <v>41112</v>
       </c>
@@ -2718,21 +2718,21 @@
         <v>8</v>
       </c>
       <c r="G81" s="69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H81" s="38"/>
-      <c r="I81" s="107"/>
+      <c r="I81" s="108"/>
       <c r="J81" s="25"/>
     </row>
     <row r="82" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="83">
+      <c r="A82" s="84">
         <v>11</v>
       </c>
       <c r="B82" s="36">
         <v>41114</v>
       </c>
       <c r="C82" s="72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D82" s="73">
         <v>0.95833333333333337</v>
@@ -2744,21 +2744,21 @@
         <v>2</v>
       </c>
       <c r="G82" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H82" s="38"/>
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
     </row>
     <row r="83" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="84"/>
+      <c r="A83" s="85"/>
       <c r="B83" s="36">
         <v>41115</v>
       </c>
       <c r="C83" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="D83" s="126">
+        <v>61</v>
+      </c>
+      <c r="D83" s="83">
         <v>0.95833333333333337</v>
       </c>
       <c r="E83" s="39">
@@ -2768,19 +2768,19 @@
         <v>2</v>
       </c>
       <c r="G83" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H83" s="38"/>
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
     </row>
     <row r="84" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="84"/>
+      <c r="A84" s="85"/>
       <c r="B84" s="36">
         <v>41116</v>
       </c>
       <c r="C84" s="72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D84" s="73">
         <v>0.95833333333333337</v>
@@ -2792,19 +2792,19 @@
         <v>2</v>
       </c>
       <c r="G84" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H84" s="38"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
     </row>
     <row r="85" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="85"/>
+      <c r="A85" s="86"/>
       <c r="B85" s="36">
         <v>41117</v>
       </c>
       <c r="C85" s="72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D85" s="73">
         <v>0.95833333333333337</v>
@@ -2816,14 +2816,14 @@
         <v>2</v>
       </c>
       <c r="G85" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H85" s="38"/>
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="95">
+      <c r="A86" s="96">
         <v>12</v>
       </c>
       <c r="B86" s="31">
@@ -2842,14 +2842,14 @@
         <v>2</v>
       </c>
       <c r="G86" s="69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H86" s="24"/>
       <c r="I86" s="24"/>
       <c r="J86" s="24"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="96"/>
+      <c r="A87" s="97"/>
       <c r="B87" s="63">
         <v>41121</v>
       </c>
@@ -2866,50 +2866,50 @@
         <v>4</v>
       </c>
       <c r="G87" s="69" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
       <c r="J87" s="33"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="96"/>
-      <c r="B88" s="98">
+      <c r="A88" s="97"/>
+      <c r="B88" s="99">
         <v>41121</v>
       </c>
-      <c r="C88" s="100">
+      <c r="C88" s="101">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D88" s="100">
+      <c r="D88" s="101">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E88" s="106">
-        <v>0</v>
-      </c>
-      <c r="F88" s="106">
+      <c r="E88" s="107">
+        <v>0</v>
+      </c>
+      <c r="F88" s="107">
         <v>7.5</v>
       </c>
-      <c r="G88" s="106" t="s">
-        <v>60</v>
+      <c r="G88" s="107" t="s">
+        <v>58</v>
       </c>
       <c r="H88" s="25"/>
-      <c r="I88" s="106"/>
-      <c r="J88" s="106"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="107"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="96"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="101"/>
-      <c r="D89" s="101"/>
-      <c r="E89" s="108"/>
-      <c r="F89" s="108"/>
-      <c r="G89" s="108"/>
+      <c r="A89" s="97"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="102"/>
+      <c r="D89" s="102"/>
+      <c r="E89" s="109"/>
+      <c r="F89" s="109"/>
+      <c r="G89" s="109"/>
       <c r="H89" s="24"/>
-      <c r="I89" s="108"/>
-      <c r="J89" s="108"/>
+      <c r="I89" s="109"/>
+      <c r="J89" s="109"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="96"/>
+      <c r="A90" s="97"/>
       <c r="B90" s="62">
         <v>41121</v>
       </c>
@@ -2926,14 +2926,14 @@
         <v>2</v>
       </c>
       <c r="G90" s="76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H90" s="25"/>
       <c r="I90" s="59"/>
       <c r="J90" s="59"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="96"/>
+      <c r="A91" s="97"/>
       <c r="B91" s="62">
         <v>41122</v>
       </c>
@@ -2950,14 +2950,14 @@
         <v>7</v>
       </c>
       <c r="G91" s="76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H91" s="46"/>
       <c r="I91" s="59"/>
       <c r="J91" s="59"/>
     </row>
     <row r="92" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="96"/>
+      <c r="A92" s="97"/>
       <c r="B92" s="43">
         <v>41123</v>
       </c>
@@ -2974,14 +2974,14 @@
         <v>2</v>
       </c>
       <c r="G92" s="54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H92" s="54"/>
       <c r="I92" s="54"/>
       <c r="J92" s="54"/>
     </row>
     <row r="93" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="95">
+      <c r="A93" s="96">
         <v>13</v>
       </c>
       <c r="B93" s="31">
@@ -3000,14 +3000,14 @@
         <v>4</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H93" s="24"/>
       <c r="I93" s="24"/>
       <c r="J93" s="24"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="96"/>
+      <c r="A94" s="97"/>
       <c r="B94" s="31">
         <v>41128</v>
       </c>
@@ -3024,14 +3024,14 @@
         <v>7</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="96"/>
+      <c r="A95" s="97"/>
       <c r="B95" s="31">
         <v>41129</v>
       </c>
@@ -3048,14 +3048,14 @@
         <v>8</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H95" s="24"/>
       <c r="I95" s="24"/>
       <c r="J95" s="24"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="96"/>
+      <c r="A96" s="97"/>
       <c r="B96" s="31">
         <v>41130</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
@@ -3093,23 +3093,23 @@
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="51"/>
       <c r="B98" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C98" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="D98" s="113"/>
-      <c r="E98" s="113"/>
-      <c r="F98" s="113"/>
-      <c r="G98" s="113"/>
-      <c r="H98" s="113"/>
-      <c r="I98" s="113"/>
-      <c r="J98" s="114"/>
+        <v>37</v>
+      </c>
+      <c r="C98" s="113" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" s="114"/>
+      <c r="E98" s="114"/>
+      <c r="F98" s="114"/>
+      <c r="G98" s="114"/>
+      <c r="H98" s="114"/>
+      <c r="I98" s="114"/>
+      <c r="J98" s="115"/>
     </row>
     <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="53"/>
       <c r="E99" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F99" s="26">
         <f>SUM(F7:F96)</f>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E100" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F100" s="26">
         <f>F99/12</f>
@@ -3252,57 +3252,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="120"/>
+      <c r="A1" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="121"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="124" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125">
+        <v>34</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126">
         <v>41050</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10">
         <f>E3</f>
@@ -3333,13 +3333,13 @@
         <v>41056</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="14">
         <f>E3</f>
@@ -3374,7 +3374,7 @@
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="18">
         <v>0.5</v>
@@ -3393,7 +3393,7 @@
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="18">
         <v>1</v>
@@ -3414,7 +3414,7 @@
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18">
         <v>2</v>
@@ -3441,7 +3441,7 @@
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="18">
         <v>2</v>
@@ -3460,7 +3460,7 @@
     <row r="10" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="22">
         <f t="shared" ref="C10:J10" si="1">SUM(C6:C9)</f>
